--- a/files/report_school.xlsx
+++ b/files/report_school.xlsx
@@ -436,11 +436,16 @@
           <t>O'rtacha baho</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Ishtirokchilar soni</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Muhammad al-Xorazmiy nomidagi ixtisoslashtirilgan maktabi</t>
+          <t>Andijon tuman ixtisoslashtirilgan maktabi</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -449,13 +454,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Muhammad al-Xorazmiy nomidagi ixtisoslashtirilgan maktabi</t>
+          <t>Andijon tuman ixtisoslashtirilgan maktabi</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -464,13 +472,14 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Muhammad al-Xorazmiy nomidagi ixtisoslashtirilgan maktabi</t>
+          <t>Andijon tuman ixtisoslashtirilgan maktabi</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -479,13 +488,14 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Muhammad al-Xorazmiy nomidagi ixtisoslashtirilgan maktabi</t>
+          <t>Andijon tuman ixtisoslashtirilgan maktabi</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -494,13 +504,14 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Muhammad al-Xorazmiy nomidagi ixtisoslashtirilgan maktabi</t>
+          <t>Andijon tuman ixtisoslashtirilgan maktabi</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -509,83 +520,9 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sergeli tuman ixtisoslashtirilgan maktabi </t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Muassasadagi ta’lim jarayonini tashkil etishda rahbariyat tomonidan amalga oshirilayotgan ishlarni qanday baholaysiz?</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sergeli tuman ixtisoslashtirilgan maktabi </t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Muassasadagi o‘qituvchilar tomonidan farzandingizga berilayotgan ta’lim sifatiga baho bering.</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sergeli tuman ixtisoslashtirilgan maktabi </t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Muassasada farzandingizni ta’lim-tarbiya olishi uchun yaratilgan shart-sharoitlarga baho bering</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sergeli tuman ixtisoslashtirilgan maktabi </t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Muassasada tashkil etilgan fan va sport to‘garak mashg‘ulotlari samaradorligi (natijadorligi)ni baholang</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sergeli tuman ixtisoslashtirilgan maktabi </t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Farzandingizga muassasada berilayotgan ta’lim sifatiga umumiy va yakuniy baho bering</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>3</v>
-      </c>
+      <c r="D6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
